--- a/WMM_All_configurations/MCBXFB_02_Outer_Iron_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Outer_Iron_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Outer_Iron_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Outer_Iron_600_20210510.xlsx
@@ -618,49 +618,49 @@
         <v>-0.02123646458647941</v>
       </c>
       <c r="R2">
-        <v>9.804977319583566</v>
+        <v>10.6195308022259</v>
       </c>
       <c r="S2">
-        <v>0.5472220925667926</v>
+        <v>0.7654281696633725</v>
       </c>
       <c r="T2">
-        <v>-0.0247649587223774</v>
+        <v>-0.05995977326244394</v>
       </c>
       <c r="U2">
-        <v>-0.0009386518862688311</v>
+        <v>0.003350270937870329</v>
       </c>
       <c r="V2">
-        <v>-3.825507433643414E-05</v>
+        <v>0.002339048288637385</v>
       </c>
       <c r="W2">
-        <v>-3.849654864370572E-07</v>
+        <v>0.07958782030842709</v>
       </c>
       <c r="X2">
-        <v>-2.069287611904081E-06</v>
+        <v>0.003577470882279704</v>
       </c>
       <c r="Y2">
-        <v>1.723526720596728E-06</v>
+        <v>-0.0105135977531452</v>
       </c>
       <c r="Z2">
-        <v>-2.66407420101363E-06</v>
+        <v>-0.0001618386281156377</v>
       </c>
       <c r="AA2">
-        <v>7.471868531670985E-06</v>
+        <v>-0.01500874085976271</v>
       </c>
       <c r="AB2">
-        <v>-4.57257771351246E-07</v>
+        <v>-0.0016697174466815</v>
       </c>
       <c r="AC2">
-        <v>7.590666368095017E-06</v>
+        <v>0.01858046414421132</v>
       </c>
       <c r="AD2">
-        <v>-3.213526529303728E-06</v>
+        <v>0.0002092247112502031</v>
       </c>
       <c r="AE2">
-        <v>-2.418862235839176E-06</v>
+        <v>-0.02666873540707762</v>
       </c>
       <c r="AF2">
-        <v>-4.013303804709854E-06</v>
+        <v>0.0005929274575118232</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -716,49 +716,49 @@
         <v>-0.02123646458647941</v>
       </c>
       <c r="R3">
-        <v>-0.2477774900790684</v>
+        <v>-9.716437283188819</v>
       </c>
       <c r="S3">
-        <v>-0.1022632476130651</v>
+        <v>-3.929058257258556</v>
       </c>
       <c r="T3">
-        <v>0.05541489538331261</v>
+        <v>0.6068613290358529</v>
       </c>
       <c r="U3">
-        <v>0.01487891420103383</v>
+        <v>0.1110901764074026</v>
       </c>
       <c r="V3">
-        <v>0.002055463251601379</v>
+        <v>0.005473215646116546</v>
       </c>
       <c r="W3">
-        <v>-5.572009280664799E-06</v>
+        <v>-0.00492809031975576</v>
       </c>
       <c r="X3">
-        <v>-0.0003394832524631401</v>
+        <v>-0.0003831630128859497</v>
       </c>
       <c r="Y3">
-        <v>-0.0002172801677691507</v>
+        <v>0.006526642840206031</v>
       </c>
       <c r="Z3">
-        <v>-6.877485885996886E-05</v>
+        <v>0.0004624739509555597</v>
       </c>
       <c r="AA3">
-        <v>-0.0001508076618098258</v>
+        <v>0.008478310304016287</v>
       </c>
       <c r="AB3">
-        <v>4.018034524913431E-05</v>
+        <v>-0.0001252683591351336</v>
       </c>
       <c r="AC3">
-        <v>0.0001312396375049676</v>
+        <v>-0.01773654586162533</v>
       </c>
       <c r="AD3">
-        <v>-3.652777273303507E-05</v>
+        <v>-0.0004173154182918449</v>
       </c>
       <c r="AE3">
-        <v>-0.0002059241236124584</v>
+        <v>0.01127365692583668</v>
       </c>
       <c r="AF3">
-        <v>2.698969492600964E-05</v>
+        <v>0.0004909467617570697</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -814,49 +814,49 @@
         <v>-0.02123646458647941</v>
       </c>
       <c r="R4">
-        <v>-0.104612962962963</v>
+        <v>-0.08008730640995541</v>
       </c>
       <c r="S4">
-        <v>-0.0941037037037037</v>
+        <v>-0.07826691748829069</v>
       </c>
       <c r="T4">
-        <v>0.005832777777777777</v>
+        <v>0.009941408399786527</v>
       </c>
       <c r="U4">
-        <v>0.01415407407407407</v>
+        <v>0.01450304836681701</v>
       </c>
       <c r="V4">
-        <v>0.0006543703703703704</v>
+        <v>0.001046861523839342</v>
       </c>
       <c r="W4">
-        <v>-0.0004504074074074074</v>
+        <v>-0.0004323843473493474</v>
       </c>
       <c r="X4">
-        <v>-0.0001079666666666667</v>
+        <v>-0.0003448484096861693</v>
       </c>
       <c r="Y4">
-        <v>-0.0001176925925925926</v>
+        <v>-8.780228143083762E-05</v>
       </c>
       <c r="Z4">
-        <v>-4.112018518518518E-07</v>
+        <v>-0.0001063312021031951</v>
       </c>
       <c r="AA4">
-        <v>1.276592592592593E-05</v>
+        <v>-1.291404568905823E-05</v>
       </c>
       <c r="AB4">
-        <v>2.826129629629629E-06</v>
+        <v>-2.033851870660883E-05</v>
       </c>
       <c r="AC4">
-        <v>-4.293549999999999E-07</v>
+        <v>3.027144362834213E-05</v>
       </c>
       <c r="AD4">
-        <v>-1.867777777777778E-06</v>
+        <v>-1.627380761150466E-06</v>
       </c>
       <c r="AE4">
-        <v>3.604203703703703E-06</v>
+        <v>-3.712005067199635E-06</v>
       </c>
       <c r="AF4">
-        <v>1.365814814814815E-06</v>
+        <v>2.714151385798358E-06</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -912,49 +912,49 @@
         <v>-0.02123646458647941</v>
       </c>
       <c r="R5">
-        <v>5.244926368328247</v>
+        <v>5.091483517816185</v>
       </c>
       <c r="S5">
-        <v>-0.1381367441139438</v>
+        <v>-0.8604556335475496</v>
       </c>
       <c r="T5">
-        <v>-0.8698596481841616</v>
+        <v>-0.2901248727891022</v>
       </c>
       <c r="U5">
-        <v>0.02394393719547186</v>
+        <v>0.06089993413209388</v>
       </c>
       <c r="V5">
-        <v>0.09113923156965631</v>
+        <v>0.08232675210814143</v>
       </c>
       <c r="W5">
-        <v>0.0004214177973634863</v>
+        <v>-0.02087061766403679</v>
       </c>
       <c r="X5">
-        <v>0.03986933563040262</v>
+        <v>-0.04056048579121432</v>
       </c>
       <c r="Y5">
-        <v>-0.0002355220516800155</v>
+        <v>0.02810214944132102</v>
       </c>
       <c r="Z5">
-        <v>-0.01856879671096567</v>
+        <v>0.004957308159158684</v>
       </c>
       <c r="AA5">
-        <v>-3.117295309464936E-05</v>
+        <v>0.0003802853440293657</v>
       </c>
       <c r="AB5">
-        <v>0.002965538970832723</v>
+        <v>0.000533131008314509</v>
       </c>
       <c r="AC5">
-        <v>6.754258145667225E-05</v>
+        <v>-0.02963472761828105</v>
       </c>
       <c r="AD5">
-        <v>-7.541715325267264E-05</v>
+        <v>0.0004677781142370378</v>
       </c>
       <c r="AE5">
-        <v>-5.217493037240661E-05</v>
+        <v>0.02640092440300901</v>
       </c>
       <c r="AF5">
-        <v>-8.393621818643412E-05</v>
+        <v>-0.002897051790450557</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1010,49 +1010,49 @@
         <v>-0.02123646458647941</v>
       </c>
       <c r="R6">
-        <v>-31.90381860688087</v>
+        <v>-35.94635931284298</v>
       </c>
       <c r="S6">
-        <v>0.7969271012475343</v>
+        <v>1.313031218690309</v>
       </c>
       <c r="T6">
-        <v>0.02568262589622943</v>
+        <v>0.08778889801992121</v>
       </c>
       <c r="U6">
-        <v>-0.001212651579064745</v>
+        <v>0.02274691421946459</v>
       </c>
       <c r="V6">
-        <v>3.88010294051184E-05</v>
+        <v>-0.0006297273708705575</v>
       </c>
       <c r="W6">
-        <v>4.593991209218071E-06</v>
+        <v>0.0785477341157431</v>
       </c>
       <c r="X6">
-        <v>2.834675594755447E-06</v>
+        <v>-0.007699469843837581</v>
       </c>
       <c r="Y6">
-        <v>2.360558170410611E-06</v>
+        <v>-0.03349386267787543</v>
       </c>
       <c r="Z6">
-        <v>3.660435404341007E-06</v>
+        <v>-0.002646330608019582</v>
       </c>
       <c r="AA6">
-        <v>1.410381606874398E-06</v>
+        <v>-0.01172101709031749</v>
       </c>
       <c r="AB6">
-        <v>-3.036674748743259E-06</v>
+        <v>0.01283047263197664</v>
       </c>
       <c r="AC6">
-        <v>2.379232462389552E-07</v>
+        <v>0.05648843876642854</v>
       </c>
       <c r="AD6">
-        <v>-2.330818654985084E-06</v>
+        <v>0.002296332831793291</v>
       </c>
       <c r="AE6">
-        <v>1.006432132953429E-07</v>
+        <v>-0.03759313491125175</v>
       </c>
       <c r="AF6">
-        <v>6.808341484046631E-07</v>
+        <v>-0.006628431643716801</v>
       </c>
     </row>
   </sheetData>
